--- a/Result/results.xlsx
+++ b/Result/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,76 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-20 13:50:08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'J7_upside_down': 0.01471119374036789}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>缺少元件: weld_1, weld_2, weld_3, weld_4, weld_5, weld_6, weld_7, weld_8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Result\20250620\FAIL\annotated\135008.jpg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Result\20250620\FAIL\original\135008.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-20 13:51:41</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'J7_upside_down': 0.014490683563053608}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>缺少元件: J7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Result\20250620\FAIL\annotated\135141.jpg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Result\20250620\FAIL\original\135141.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
